--- a/Team-Data/2007-08/1-28-2007-08.xlsx
+++ b/Team-Data/2007-08/1-28-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -759,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
@@ -813,7 +880,7 @@
         <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
         <v>23</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL3" t="n">
         <v>9</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
         <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.386</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,40 +1115,40 @@
         <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79</v>
+        <v>79.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
         <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O4" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P4" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.707</v>
+        <v>0.706</v>
       </c>
       <c r="R4" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="U4" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="V4" t="n">
         <v>15.3</v>
@@ -1093,31 +1160,31 @@
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA4" t="n">
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>4</v>
@@ -1129,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1138,19 +1205,19 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1159,19 +1226,19 @@
         <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV4" t="n">
         <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
@@ -1180,7 +1247,7 @@
         <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1329,7 +1396,7 @@
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1353,7 +1420,7 @@
         <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>14</v>
@@ -1362,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1508,7 +1575,7 @@
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.705</v>
+        <v>0.698</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J7" t="n">
         <v>78.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O7" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="P7" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="Q7" t="n">
         <v>0.822</v>
       </c>
       <c r="R7" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V7" t="n">
         <v>13</v>
@@ -1645,25 +1712,25 @@
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB7" t="n">
         <v>101.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>3</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
@@ -1675,10 +1742,10 @@
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>20</v>
@@ -1699,10 +1766,10 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
         <v>22</v>
@@ -1726,10 +1793,10 @@
         <v>14</v>
       </c>
       <c r="BB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC7" t="n">
         <v>8</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.591</v>
+        <v>0.605</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.451</v>
@@ -1785,40 +1852,40 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O8" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="P8" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S8" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T8" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
@@ -1830,25 +1897,25 @@
         <v>24.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.1</v>
+        <v>106.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AD8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE8" t="n">
         <v>10</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1857,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>17</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,16 +1948,16 @@
         <v>8</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="n">
         <v>3</v>
@@ -2030,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2054,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>12</v>
@@ -2066,7 +2133,7 @@
         <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -2206,10 +2273,10 @@
         <v>8</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
@@ -2239,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
         <v>7</v>
@@ -2257,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2394,7 +2461,7 @@
         <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>18</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2454,7 +2521,7 @@
         <v>22</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>16</v>
@@ -2609,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -2668,91 +2735,91 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="n">
-        <v>0.317</v>
+        <v>0.325</v>
       </c>
       <c r="H13" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="J13" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.33</v>
+        <v>0.335</v>
       </c>
       <c r="O13" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="P13" t="n">
-        <v>26.5</v>
+        <v>26.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R13" t="n">
         <v>9.6</v>
       </c>
       <c r="S13" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T13" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="U13" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
         <v>14.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z13" t="n">
         <v>21.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>26</v>
@@ -2761,22 +2828,22 @@
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2791,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
         <v>12</v>
@@ -2806,7 +2873,7 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
@@ -2815,10 +2882,10 @@
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>7</v>
@@ -2967,10 +3034,10 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2991,7 +3058,7 @@
         <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>18</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -3032,61 +3099,61 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.289</v>
+        <v>0.295</v>
       </c>
       <c r="H15" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L15" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O15" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.748</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="W15" t="n">
         <v>5.8</v>
@@ -3095,22 +3162,22 @@
         <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.4</v>
+        <v>-4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,10 +3189,10 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI15" t="n">
         <v>8</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>9</v>
       </c>
       <c r="AJ15" t="n">
         <v>14</v>
@@ -3146,10 +3213,10 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
@@ -3164,25 +3231,25 @@
         <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW15" t="n">
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>28</v>
@@ -3331,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3553,7 @@
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
@@ -3507,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP17" t="n">
         <v>24</v>
@@ -3525,7 +3592,7 @@
         <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3689,7 +3756,7 @@
         <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3868,13 +3935,13 @@
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>27</v>
@@ -3892,7 +3959,7 @@
         <v>4</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="n">
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.727</v>
+        <v>0.721</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M20" t="n">
         <v>20.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P20" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>4</v>
@@ -4008,22 +4075,22 @@
         <v>4.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
         <v>2</v>
@@ -4032,16 +4099,16 @@
         <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="n">
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4053,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP20" t="n">
         <v>30</v>
@@ -4062,7 +4129,7 @@
         <v>6</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS20" t="n">
         <v>13</v>
@@ -4071,19 +4138,19 @@
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4232,7 +4299,7 @@
         <v>17</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
@@ -4274,7 +4341,7 @@
         <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4457,7 @@
         <v>6</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -4569,10 +4636,10 @@
         <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
         <v>24</v>
@@ -4614,7 +4681,7 @@
         <v>29</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE25" t="n">
         <v>10</v>
       </c>
-      <c r="AE25" t="n">
-        <v>11</v>
-      </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -4972,7 +5039,7 @@
         <v>9</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS25" t="n">
         <v>20</v>
@@ -4981,7 +5048,7 @@
         <v>28</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" t="n">
         <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.651</v>
+        <v>0.667</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L27" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M27" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
       <c r="O27" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P27" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.753</v>
+        <v>0.749</v>
       </c>
       <c r="R27" t="n">
         <v>10.1</v>
       </c>
       <c r="S27" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T27" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U27" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="V27" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="W27" t="n">
         <v>6.7</v>
@@ -5279,22 +5346,22 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>6</v>
@@ -5306,7 +5373,7 @@
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5315,7 +5382,7 @@
         <v>22</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>6</v>
@@ -5327,13 +5394,13 @@
         <v>5</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR27" t="n">
         <v>22</v>
@@ -5342,10 +5409,10 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5354,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>13</v>
@@ -5369,7 +5436,7 @@
         <v>18</v>
       </c>
       <c r="BC27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,28 +5555,28 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN28" t="n">
         <v>26</v>
       </c>
-      <c r="AM28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>25</v>
-      </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5524,13 +5591,13 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>19</v>
       </c>
       <c r="AV28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW28" t="n">
         <v>24</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5721,7 +5788,7 @@
         <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,7 +5847,7 @@
         <v>39.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.493</v>
@@ -5795,37 +5862,37 @@
         <v>0.361</v>
       </c>
       <c r="O30" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="P30" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="Q30" t="n">
         <v>0.752</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
         <v>29.1</v>
       </c>
       <c r="T30" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="V30" t="n">
         <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
         <v>24.8</v>
@@ -5834,22 +5901,22 @@
         <v>23.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.3</v>
+        <v>105.5</v>
       </c>
       <c r="AC30" t="n">
         <v>5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,16 +5946,16 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS30" t="n">
         <v>28</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5897,7 +5964,7 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6043,7 +6110,7 @@
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL31" t="n">
         <v>12</v>
@@ -6085,7 +6152,7 @@
         <v>12</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6094,7 +6161,7 @@
         <v>27</v>
       </c>
       <c r="BB31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-28-2007-08</t>
+          <t>2008-01-28</t>
         </is>
       </c>
     </row>
